--- a/Generales/Mapeos_Generales_V1.xlsx
+++ b/Generales/Mapeos_Generales_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="315" windowWidth="9225" windowHeight="4710" tabRatio="583" activeTab="2"/>
+    <workbookView xWindow="285" yWindow="315" windowWidth="9225" windowHeight="4710" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SIS_FTE" sheetId="10" r:id="rId1"/>
@@ -697,9 +697,6 @@
     <t>COD_ESQ</t>
   </si>
   <si>
-    <t>CHAR(6)</t>
-  </si>
-  <si>
     <t>NOM_CRO</t>
   </si>
   <si>
@@ -1088,6 +1085,9 @@
   </si>
   <si>
     <t>Validaciones Generales Fuente MSR_PRD/ 4. Búsqueda de flag de último día del mes</t>
+  </si>
+  <si>
+    <t>CHAR(15)</t>
   </si>
 </sst>
 </file>
@@ -2189,66 +2189,6 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="30" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="43" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2289,6 +2229,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="30" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="43" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2767,7 +2767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2815,11 +2815,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="24"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -2827,11 +2827,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="27"/>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -2839,9 +2839,9 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -2849,9 +2849,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2863,29 +2863,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="87" t="s">
+      <c r="I7" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="89"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="73" t="s">
+      <c r="M7" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="75"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="99"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3122,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3160,11 +3160,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="24"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -3172,11 +3172,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="27"/>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -3184,9 +3184,9 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -3194,9 +3194,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3208,29 +3208,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="90"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="91" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="116"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="73" t="s">
+      <c r="M7" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="75"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="99"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="68"/>
       <c r="H9" s="34"/>
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9" s="59" t="s">
         <v>37</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="34"/>
@@ -3338,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O10" s="53" t="s">
         <v>38</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="34"/>
@@ -3372,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="53" t="s">
         <v>39</v>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="56"/>
       <c r="H12" s="34"/>
@@ -3406,7 +3406,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O12" s="53" t="s">
         <v>20</v>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="56"/>
       <c r="H13" s="34"/>
@@ -3440,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O13" s="53" t="s">
         <v>41</v>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="34"/>
@@ -3474,7 +3474,7 @@
         <v>6</v>
       </c>
       <c r="N14" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O14" s="53" t="s">
         <v>42</v>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="34"/>
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="N15" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O15" s="53" t="s">
         <v>43</v>
@@ -3529,13 +3529,13 @@
         <v>44</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="54">
         <v>6</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="34"/>
@@ -3544,13 +3544,13 @@
         <v>8</v>
       </c>
       <c r="N16" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O16" s="53" t="s">
         <v>44</v>
       </c>
       <c r="P16" s="53" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="53" t="s">
         <v>19</v>
@@ -3562,16 +3562,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="54">
         <v>18</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="57"/>
       <c r="H17" s="34"/>
@@ -3580,13 +3580,13 @@
         <v>9</v>
       </c>
       <c r="N17" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O17" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="53" t="s">
         <v>46</v>
-      </c>
-      <c r="P17" s="53" t="s">
-        <v>47</v>
       </c>
       <c r="Q17" s="53" t="s">
         <v>19</v>
@@ -3598,16 +3598,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="54">
         <v>32</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="34"/>
@@ -3616,13 +3616,13 @@
         <v>10</v>
       </c>
       <c r="N18" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O18" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="53" t="s">
         <v>48</v>
-      </c>
-      <c r="P18" s="53" t="s">
-        <v>49</v>
       </c>
       <c r="Q18" s="53" t="s">
         <v>19</v>
@@ -3634,16 +3634,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="54">
         <v>64</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="57"/>
       <c r="H19" s="34"/>
@@ -3652,13 +3652,13 @@
         <v>11</v>
       </c>
       <c r="N19" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O19" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="53" t="s">
         <v>50</v>
-      </c>
-      <c r="P19" s="53" t="s">
-        <v>51</v>
       </c>
       <c r="Q19" s="53" t="s">
         <v>19</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="34"/>
@@ -3686,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="N20" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O20" s="53" t="s">
         <v>29</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="34"/>
@@ -3720,7 +3720,7 @@
         <v>13</v>
       </c>
       <c r="N21" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="53" t="s">
         <v>22</v>
@@ -3738,14 +3738,14 @@
         <v>14</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="53" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="34"/>
@@ -3754,10 +3754,10 @@
         <v>14</v>
       </c>
       <c r="N22" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P22" s="53" t="s">
         <v>21</v>
@@ -3772,7 +3772,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="53" t="s">
         <v>33</v>
@@ -3781,7 +3781,7 @@
         <v>256</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="57"/>
       <c r="H23" s="33"/>
@@ -3790,13 +3790,13 @@
         <v>15</v>
       </c>
       <c r="N23" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="61" t="s">
         <v>53</v>
-      </c>
-      <c r="P23" s="61" t="s">
-        <v>54</v>
       </c>
       <c r="Q23" s="61" t="s">
         <v>19</v>
@@ -3823,7 +3823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K13" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -3861,11 +3861,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="24"/>
-      <c r="D2" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
+      <c r="D2" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -3873,11 +3873,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="27"/>
-      <c r="D3" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
+      <c r="D3" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -3885,9 +3885,9 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -3895,9 +3895,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3909,29 +3909,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="91" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="116"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="73" t="s">
+      <c r="M7" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="75"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="99"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3953,13 +3953,13 @@
         <v>12</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="105" t="s">
+      <c r="I8" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="106" t="s">
+      <c r="J8" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="107" t="s">
+      <c r="K8" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="12"/>
@@ -3987,31 +3987,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="108">
+      <c r="F9" s="79"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="88">
         <v>41</v>
       </c>
-      <c r="J9" s="109" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" s="113" t="s">
-        <v>172</v>
+      <c r="J9" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="93" t="s">
+        <v>171</v>
       </c>
       <c r="L9" s="48"/>
-      <c r="M9" s="114">
+      <c r="M9" s="94">
         <v>41</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P9" s="30" t="s">
         <v>21</v>
@@ -4020,7 +4020,7 @@
         <v>17</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -4028,28 +4028,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="28"/>
       <c r="F10" s="55"/>
       <c r="G10" s="56"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="110">
+      <c r="H10" s="84"/>
+      <c r="I10" s="90">
         <v>42</v>
       </c>
       <c r="J10" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="94" t="s">
-        <v>153</v>
-      </c>
       <c r="L10" s="48"/>
-      <c r="M10" s="115">
+      <c r="M10" s="95">
         <v>42</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O10" s="28" t="s">
         <v>38</v>
@@ -4067,28 +4067,28 @@
         <v>3</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="28"/>
       <c r="F11" s="55"/>
       <c r="G11" s="56"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="110">
+      <c r="H11" s="84"/>
+      <c r="I11" s="90">
         <v>43</v>
       </c>
       <c r="J11" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="94" t="s">
-        <v>155</v>
-      </c>
       <c r="L11" s="48"/>
-      <c r="M11" s="115">
+      <c r="M11" s="95">
         <v>43</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>39</v>
@@ -4106,28 +4106,28 @@
         <v>4</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="28"/>
       <c r="F12" s="55"/>
       <c r="G12" s="56"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="110">
+      <c r="H12" s="84"/>
+      <c r="I12" s="90">
         <v>44</v>
       </c>
       <c r="J12" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="K12" s="94" t="s">
-        <v>157</v>
-      </c>
       <c r="L12" s="48"/>
-      <c r="M12" s="115">
+      <c r="M12" s="95">
         <v>45</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>20</v>
@@ -4145,34 +4145,34 @@
         <v>5</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="28"/>
       <c r="F13" s="55"/>
       <c r="G13" s="56"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="110">
+      <c r="H13" s="84"/>
+      <c r="I13" s="90">
         <v>45</v>
       </c>
       <c r="J13" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="94" t="s">
-        <v>160</v>
-      </c>
       <c r="L13" s="34"/>
-      <c r="M13" s="115">
+      <c r="M13" s="95">
         <v>5</v>
       </c>
       <c r="N13" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O13" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="28" t="s">
         <v>115</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>116</v>
       </c>
       <c r="Q13" s="28" t="s">
         <v>19</v>
@@ -4184,31 +4184,31 @@
         <v>6</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="110">
+      <c r="H14" s="84"/>
+      <c r="I14" s="90">
         <v>46</v>
       </c>
       <c r="J14" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="K14" s="94" t="s">
-        <v>162</v>
-      </c>
       <c r="L14" s="34"/>
-      <c r="M14" s="115">
+      <c r="M14" s="95">
         <v>46</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P14" s="28" t="s">
         <v>21</v>
@@ -4223,28 +4223,28 @@
         <v>7</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
       <c r="G15" s="57"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="110">
+      <c r="H15" s="84"/>
+      <c r="I15" s="90">
         <v>47</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="K15" s="94" t="s">
-        <v>163</v>
+        <v>155</v>
+      </c>
+      <c r="K15" s="74" t="s">
+        <v>162</v>
       </c>
       <c r="L15" s="34"/>
-      <c r="M15" s="115">
+      <c r="M15" s="95">
         <v>7</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O15" s="28" t="s">
         <v>29</v>
@@ -4262,28 +4262,28 @@
         <v>8</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
       <c r="F16" s="55"/>
       <c r="G16" s="57"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="110">
+      <c r="H16" s="84"/>
+      <c r="I16" s="90">
         <v>48</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" s="94" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="K16" s="74" t="s">
+        <v>172</v>
       </c>
       <c r="L16" s="34"/>
-      <c r="M16" s="93">
+      <c r="M16" s="73">
         <v>47</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O16" s="28" t="s">
         <v>22</v>
@@ -4301,34 +4301,34 @@
         <v>9</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
       <c r="F17" s="55"/>
       <c r="G17" s="57"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="110">
+      <c r="H17" s="84"/>
+      <c r="I17" s="90">
         <v>49</v>
       </c>
       <c r="J17" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="94" t="s">
-        <v>174</v>
+        <v>164</v>
+      </c>
+      <c r="K17" s="74" t="s">
+        <v>173</v>
       </c>
       <c r="L17" s="34"/>
-      <c r="M17" s="115">
+      <c r="M17" s="95">
         <v>9</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="28" t="s">
         <v>19</v>
@@ -4340,31 +4340,31 @@
         <v>10</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
       <c r="F18" s="55"/>
       <c r="G18" s="57"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="110">
+      <c r="H18" s="84"/>
+      <c r="I18" s="90">
         <v>50</v>
       </c>
       <c r="J18" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="94" t="s">
-        <v>167</v>
-      </c>
       <c r="L18" s="34"/>
-      <c r="M18" s="115">
+      <c r="M18" s="95">
         <v>10</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O18" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P18" s="28" t="s">
         <v>21</v>
@@ -4379,31 +4379,31 @@
         <v>11</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="54"/>
       <c r="F19" s="55"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="110">
+      <c r="H19" s="84"/>
+      <c r="I19" s="90">
         <v>51</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="K19" s="94" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="K19" s="74" t="s">
+        <v>161</v>
       </c>
       <c r="L19" s="34"/>
-      <c r="M19" s="115">
+      <c r="M19" s="95">
         <v>11</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O19" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P19" s="28" t="s">
         <v>21</v>
@@ -4418,31 +4418,31 @@
         <v>12</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="54"/>
       <c r="F20" s="55"/>
       <c r="G20" s="57"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="110">
+      <c r="H20" s="84"/>
+      <c r="I20" s="90">
         <v>52</v>
       </c>
       <c r="J20" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="94" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="K20" s="74" t="s">
+        <v>159</v>
       </c>
       <c r="L20" s="34"/>
-      <c r="M20" s="115">
+      <c r="M20" s="95">
         <v>48</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O20" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P20" s="28" t="s">
         <v>21</v>
@@ -4457,31 +4457,31 @@
         <v>13</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="54"/>
       <c r="F21" s="55"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="110">
+      <c r="H21" s="84"/>
+      <c r="I21" s="90">
         <v>53</v>
       </c>
       <c r="J21" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" s="94" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="K21" s="74" t="s">
+        <v>159</v>
       </c>
       <c r="L21" s="34"/>
-      <c r="M21" s="116">
+      <c r="M21" s="96">
         <v>13</v>
       </c>
       <c r="N21" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O21" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P21" s="28" t="s">
         <v>21</v>
@@ -4496,31 +4496,31 @@
         <v>14</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="54"/>
       <c r="F22" s="55"/>
       <c r="G22" s="57"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="111">
+      <c r="H22" s="84"/>
+      <c r="I22" s="91">
         <v>54</v>
       </c>
-      <c r="J22" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="97" t="s">
-        <v>175</v>
+      <c r="J22" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" s="77" t="s">
+        <v>174</v>
       </c>
       <c r="L22" s="34"/>
-      <c r="M22" s="116">
+      <c r="M22" s="96">
         <v>14</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O22" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P22" s="28" t="s">
         <v>21</v>
@@ -4535,7 +4535,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="54"/>
@@ -4543,14 +4543,14 @@
       <c r="G23" s="57"/>
       <c r="H23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="116">
+      <c r="M23" s="96">
         <v>15</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O23" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P23" s="28" t="s">
         <v>21</v>
@@ -4565,22 +4565,22 @@
         <v>16</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
-      <c r="F24" s="98"/>
+      <c r="F24" s="78"/>
       <c r="G24" s="57"/>
       <c r="H24" s="34"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="116">
+      <c r="M24" s="96">
         <v>16</v>
       </c>
       <c r="N24" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O24" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P24" s="28" t="s">
         <v>21</v>
@@ -4595,22 +4595,22 @@
         <v>17</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
-      <c r="F25" s="98"/>
+      <c r="F25" s="78"/>
       <c r="G25" s="57"/>
       <c r="H25" s="34"/>
       <c r="L25" s="34"/>
-      <c r="M25" s="116">
+      <c r="M25" s="96">
         <v>17</v>
       </c>
       <c r="N25" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O25" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P25" s="28" t="s">
         <v>21</v>
@@ -4625,22 +4625,22 @@
         <v>18</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
-      <c r="F26" s="98"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="57"/>
       <c r="H26" s="34"/>
       <c r="L26" s="34"/>
-      <c r="M26" s="116">
+      <c r="M26" s="96">
         <v>18</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O26" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P26" s="28" t="s">
         <v>21</v>
@@ -4655,22 +4655,22 @@
         <v>19</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="98"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="57"/>
       <c r="H27" s="34"/>
       <c r="L27" s="34"/>
-      <c r="M27" s="116">
+      <c r="M27" s="96">
         <v>19</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O27" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P27" s="28" t="s">
         <v>21</v>
@@ -4685,22 +4685,22 @@
         <v>20</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="98"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="57"/>
       <c r="H28" s="34"/>
       <c r="L28" s="34"/>
-      <c r="M28" s="116">
+      <c r="M28" s="96">
         <v>20</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O28" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P28" s="28" t="s">
         <v>21</v>
@@ -4715,22 +4715,22 @@
         <v>21</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
-      <c r="F29" s="98"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="57"/>
       <c r="H29" s="34"/>
       <c r="L29" s="34"/>
-      <c r="M29" s="116">
+      <c r="M29" s="96">
         <v>21</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O29" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P29" s="28" t="s">
         <v>21</v>
@@ -4745,22 +4745,22 @@
         <v>22</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="98"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="57"/>
       <c r="H30" s="34"/>
       <c r="L30" s="34"/>
-      <c r="M30" s="93">
+      <c r="M30" s="73">
         <v>49</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O30" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P30" s="28" t="s">
         <v>21</v>
@@ -4775,22 +4775,22 @@
         <v>23</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
-      <c r="F31" s="98"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="57"/>
       <c r="H31" s="34"/>
       <c r="L31" s="34"/>
-      <c r="M31" s="116">
+      <c r="M31" s="96">
         <v>23</v>
       </c>
       <c r="N31" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O31" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P31" s="28" t="s">
         <v>21</v>
@@ -4805,22 +4805,22 @@
         <v>24</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
-      <c r="F32" s="98"/>
+      <c r="F32" s="78"/>
       <c r="G32" s="57"/>
       <c r="H32" s="34"/>
       <c r="L32" s="34"/>
-      <c r="M32" s="116">
+      <c r="M32" s="96">
         <v>24</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O32" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P32" s="28" t="s">
         <v>21</v>
@@ -4835,22 +4835,22 @@
         <v>25</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
-      <c r="F33" s="98"/>
+      <c r="F33" s="78"/>
       <c r="G33" s="57"/>
       <c r="H33" s="34"/>
       <c r="L33" s="34"/>
-      <c r="M33" s="116">
+      <c r="M33" s="96">
         <v>25</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O33" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P33" s="28" t="s">
         <v>21</v>
@@ -4865,22 +4865,22 @@
         <v>26</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
-      <c r="F34" s="98"/>
+      <c r="F34" s="78"/>
       <c r="G34" s="57"/>
       <c r="H34" s="34"/>
       <c r="L34" s="34"/>
-      <c r="M34" s="116">
+      <c r="M34" s="96">
         <v>26</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O34" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P34" s="28" t="s">
         <v>21</v>
@@ -4895,22 +4895,22 @@
         <v>27</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
-      <c r="F35" s="98"/>
+      <c r="F35" s="78"/>
       <c r="G35" s="57"/>
       <c r="H35" s="34"/>
       <c r="L35" s="34"/>
-      <c r="M35" s="116">
+      <c r="M35" s="96">
         <v>27</v>
       </c>
       <c r="N35" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O35" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P35" s="28" t="s">
         <v>21</v>
@@ -4925,22 +4925,22 @@
         <v>28</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
-      <c r="F36" s="98"/>
+      <c r="F36" s="78"/>
       <c r="G36" s="57"/>
       <c r="H36" s="34"/>
       <c r="L36" s="34"/>
-      <c r="M36" s="116">
+      <c r="M36" s="96">
         <v>28</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O36" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P36" s="28" t="s">
         <v>21</v>
@@ -4955,22 +4955,22 @@
         <v>29</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="98"/>
+      <c r="F37" s="78"/>
       <c r="G37" s="57"/>
       <c r="H37" s="34"/>
       <c r="L37" s="34"/>
-      <c r="M37" s="116">
+      <c r="M37" s="96">
         <v>29</v>
       </c>
       <c r="N37" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O37" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P37" s="28" t="s">
         <v>21</v>
@@ -4985,22 +4985,22 @@
         <v>30</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
-      <c r="F38" s="98"/>
+      <c r="F38" s="78"/>
       <c r="G38" s="57"/>
       <c r="H38" s="34"/>
       <c r="L38" s="34"/>
-      <c r="M38" s="116">
+      <c r="M38" s="96">
         <v>30</v>
       </c>
       <c r="N38" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O38" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P38" s="28" t="s">
         <v>21</v>
@@ -5015,22 +5015,22 @@
         <v>31</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
-      <c r="F39" s="98"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="57"/>
       <c r="H39" s="34"/>
       <c r="L39" s="34"/>
-      <c r="M39" s="93">
+      <c r="M39" s="73">
         <v>50</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O39" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P39" s="28" t="s">
         <v>21</v>
@@ -5045,22 +5045,22 @@
         <v>32</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="54"/>
       <c r="E40" s="54"/>
-      <c r="F40" s="98"/>
+      <c r="F40" s="78"/>
       <c r="G40" s="57"/>
       <c r="H40" s="34"/>
       <c r="L40" s="34"/>
-      <c r="M40" s="93">
+      <c r="M40" s="73">
         <v>51</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O40" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P40" s="28" t="s">
         <v>21</v>
@@ -5075,22 +5075,22 @@
         <v>33</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="98"/>
+      <c r="F41" s="78"/>
       <c r="G41" s="57"/>
       <c r="H41" s="34"/>
       <c r="L41" s="34"/>
-      <c r="M41" s="93">
+      <c r="M41" s="73">
         <v>52</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O41" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P41" s="28" t="s">
         <v>21</v>
@@ -5105,22 +5105,22 @@
         <v>34</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="54"/>
       <c r="E42" s="54"/>
-      <c r="F42" s="98"/>
+      <c r="F42" s="78"/>
       <c r="G42" s="57"/>
       <c r="H42" s="34"/>
       <c r="L42" s="34"/>
-      <c r="M42" s="93">
+      <c r="M42" s="73">
         <v>52</v>
       </c>
       <c r="N42" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O42" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P42" s="28" t="s">
         <v>21</v>
@@ -5135,22 +5135,22 @@
         <v>35</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
-      <c r="F43" s="98"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="57"/>
       <c r="H43" s="34"/>
       <c r="L43" s="34"/>
-      <c r="M43" s="93">
+      <c r="M43" s="73">
         <v>52</v>
       </c>
       <c r="N43" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O43" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P43" s="28" t="s">
         <v>21</v>
@@ -5165,22 +5165,22 @@
         <v>36</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
-      <c r="F44" s="98"/>
+      <c r="F44" s="78"/>
       <c r="G44" s="57"/>
       <c r="H44" s="34"/>
       <c r="L44" s="34"/>
-      <c r="M44" s="93">
+      <c r="M44" s="73">
         <v>36</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O44" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P44" s="28" t="s">
         <v>21</v>
@@ -5195,22 +5195,22 @@
         <v>37</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="54"/>
       <c r="E45" s="54"/>
-      <c r="F45" s="98"/>
+      <c r="F45" s="78"/>
       <c r="G45" s="57"/>
       <c r="H45" s="34"/>
       <c r="L45" s="34"/>
-      <c r="M45" s="93">
+      <c r="M45" s="73">
         <v>53</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O45" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P45" s="28" t="s">
         <v>21</v>
@@ -5225,22 +5225,22 @@
         <v>38</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="54"/>
       <c r="E46" s="54"/>
-      <c r="F46" s="98"/>
+      <c r="F46" s="78"/>
       <c r="G46" s="57"/>
       <c r="H46" s="34"/>
       <c r="L46" s="34"/>
-      <c r="M46" s="93">
+      <c r="M46" s="73">
         <v>38</v>
       </c>
       <c r="N46" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O46" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P46" s="28" t="s">
         <v>21</v>
@@ -5255,22 +5255,22 @@
         <v>39</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="54"/>
       <c r="E47" s="54"/>
-      <c r="F47" s="98"/>
+      <c r="F47" s="78"/>
       <c r="G47" s="57"/>
       <c r="H47" s="34"/>
       <c r="L47" s="34"/>
-      <c r="M47" s="93">
+      <c r="M47" s="73">
         <v>54</v>
       </c>
       <c r="N47" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P47" s="28" t="s">
         <v>21</v>
@@ -5284,26 +5284,26 @@
       <c r="B48" s="31">
         <v>40</v>
       </c>
-      <c r="C48" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="103"/>
+      <c r="C48" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="83"/>
       <c r="H48" s="33"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="95">
+      <c r="M48" s="75">
         <v>40</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="O48" s="112" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="O48" s="92" t="s">
+        <v>148</v>
       </c>
       <c r="P48" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q48" s="32" t="s">
         <v>19</v>

--- a/Generales/Mapeos_Generales_V1.xlsx
+++ b/Generales/Mapeos_Generales_V1.xlsx
@@ -1087,7 +1087,7 @@
     <t>Validaciones Generales Fuente MSR_PRD/ 4. Búsqueda de flag de último día del mes</t>
   </si>
   <si>
-    <t>CHAR(15)</t>
+    <t>CHAR(30)</t>
   </si>
 </sst>
 </file>
@@ -2767,7 +2767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3123,7 +3123,7 @@
   <dimension ref="B1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Generales/Mapeos_Generales_V1.xlsx
+++ b/Generales/Mapeos_Generales_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="315" windowWidth="9225" windowHeight="4710" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="315" windowWidth="9225" windowHeight="4710" tabRatio="583" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SIS_FTE" sheetId="10" r:id="rId1"/>
@@ -1012,9 +1012,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>Insert PDO_D_TIE</t>
-  </si>
-  <si>
     <t>Asignar fecha de carga</t>
   </si>
   <si>
@@ -1088,6 +1085,9 @@
   </si>
   <si>
     <t>CHAR(30)</t>
+  </si>
+  <si>
+    <t>Insert MSR_PRD</t>
   </si>
 </sst>
 </file>
@@ -2767,7 +2767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3122,7 +3122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+    <sheetView topLeftCell="K7" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -3550,7 +3550,7 @@
         <v>44</v>
       </c>
       <c r="P16" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="53" t="s">
         <v>19</v>
@@ -3823,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3998,17 +3998,17 @@
         <v>41</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K9" s="93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="94">
         <v>41</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O9" s="30" t="s">
         <v>113</v>
@@ -4039,17 +4039,17 @@
         <v>42</v>
       </c>
       <c r="J10" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="74" t="s">
         <v>151</v>
-      </c>
-      <c r="K10" s="74" t="s">
-        <v>152</v>
       </c>
       <c r="L10" s="48"/>
       <c r="M10" s="95">
         <v>42</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O10" s="28" t="s">
         <v>38</v>
@@ -4078,17 +4078,17 @@
         <v>43</v>
       </c>
       <c r="J11" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="74" t="s">
         <v>153</v>
-      </c>
-      <c r="K11" s="74" t="s">
-        <v>154</v>
       </c>
       <c r="L11" s="48"/>
       <c r="M11" s="95">
         <v>43</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>39</v>
@@ -4117,17 +4117,17 @@
         <v>44</v>
       </c>
       <c r="J12" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="74" t="s">
         <v>155</v>
-      </c>
-      <c r="K12" s="74" t="s">
-        <v>156</v>
       </c>
       <c r="L12" s="48"/>
       <c r="M12" s="95">
         <v>45</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>20</v>
@@ -4156,17 +4156,17 @@
         <v>45</v>
       </c>
       <c r="J13" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="74" t="s">
         <v>158</v>
-      </c>
-      <c r="K13" s="74" t="s">
-        <v>159</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="95">
         <v>5</v>
       </c>
       <c r="N13" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O13" s="28" t="s">
         <v>114</v>
@@ -4195,17 +4195,17 @@
         <v>46</v>
       </c>
       <c r="J14" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="74" t="s">
         <v>160</v>
-      </c>
-      <c r="K14" s="74" t="s">
-        <v>161</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="95">
         <v>46</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O14" s="28" t="s">
         <v>116</v>
@@ -4234,17 +4234,17 @@
         <v>47</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="95">
         <v>7</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O15" s="28" t="s">
         <v>29</v>
@@ -4273,17 +4273,17 @@
         <v>48</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K16" s="74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L16" s="34"/>
       <c r="M16" s="73">
         <v>47</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O16" s="28" t="s">
         <v>22</v>
@@ -4312,17 +4312,17 @@
         <v>49</v>
       </c>
       <c r="J17" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" s="74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="95">
         <v>9</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>117</v>
@@ -4351,17 +4351,17 @@
         <v>50</v>
       </c>
       <c r="J18" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="74" t="s">
         <v>165</v>
-      </c>
-      <c r="K18" s="74" t="s">
-        <v>166</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="95">
         <v>10</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O18" s="28" t="s">
         <v>118</v>
@@ -4390,17 +4390,17 @@
         <v>51</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K19" s="74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="95">
         <v>11</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>119</v>
@@ -4429,17 +4429,17 @@
         <v>52</v>
       </c>
       <c r="J20" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K20" s="74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="95">
         <v>48</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O20" s="28" t="s">
         <v>120</v>
@@ -4468,17 +4468,17 @@
         <v>53</v>
       </c>
       <c r="J21" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K21" s="74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="96">
         <v>13</v>
       </c>
       <c r="N21" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O21" s="28" t="s">
         <v>121</v>
@@ -4507,17 +4507,17 @@
         <v>54</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K22" s="77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="96">
         <v>14</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O22" s="28" t="s">
         <v>122</v>
@@ -4547,7 +4547,7 @@
         <v>15</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>123</v>
@@ -4577,7 +4577,7 @@
         <v>16</v>
       </c>
       <c r="N24" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O24" s="28" t="s">
         <v>124</v>
@@ -4607,7 +4607,7 @@
         <v>17</v>
       </c>
       <c r="N25" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O25" s="28" t="s">
         <v>125</v>
@@ -4637,7 +4637,7 @@
         <v>18</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O26" s="28" t="s">
         <v>126</v>
@@ -4667,7 +4667,7 @@
         <v>19</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O27" s="28" t="s">
         <v>127</v>
@@ -4697,7 +4697,7 @@
         <v>20</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O28" s="28" t="s">
         <v>128</v>
@@ -4727,7 +4727,7 @@
         <v>21</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O29" s="28" t="s">
         <v>129</v>
@@ -4757,7 +4757,7 @@
         <v>49</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O30" s="28" t="s">
         <v>130</v>
@@ -4787,7 +4787,7 @@
         <v>23</v>
       </c>
       <c r="N31" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O31" s="28" t="s">
         <v>131</v>
@@ -4817,7 +4817,7 @@
         <v>24</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O32" s="28" t="s">
         <v>132</v>
@@ -4847,7 +4847,7 @@
         <v>25</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O33" s="28" t="s">
         <v>133</v>
@@ -4877,7 +4877,7 @@
         <v>26</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O34" s="28" t="s">
         <v>134</v>
@@ -4907,7 +4907,7 @@
         <v>27</v>
       </c>
       <c r="N35" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O35" s="28" t="s">
         <v>135</v>
@@ -4937,7 +4937,7 @@
         <v>28</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O36" s="28" t="s">
         <v>136</v>
@@ -4967,7 +4967,7 @@
         <v>29</v>
       </c>
       <c r="N37" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O37" s="28" t="s">
         <v>137</v>
@@ -4997,7 +4997,7 @@
         <v>30</v>
       </c>
       <c r="N38" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O38" s="28" t="s">
         <v>138</v>
@@ -5027,7 +5027,7 @@
         <v>50</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O39" s="28" t="s">
         <v>139</v>
@@ -5057,7 +5057,7 @@
         <v>51</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O40" s="28" t="s">
         <v>140</v>
@@ -5087,7 +5087,7 @@
         <v>52</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O41" s="28" t="s">
         <v>141</v>
@@ -5117,7 +5117,7 @@
         <v>52</v>
       </c>
       <c r="N42" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O42" s="28" t="s">
         <v>142</v>
@@ -5147,7 +5147,7 @@
         <v>52</v>
       </c>
       <c r="N43" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O43" s="28" t="s">
         <v>143</v>
@@ -5177,7 +5177,7 @@
         <v>36</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O44" s="28" t="s">
         <v>144</v>
@@ -5207,7 +5207,7 @@
         <v>53</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O45" s="28" t="s">
         <v>145</v>
@@ -5237,7 +5237,7 @@
         <v>38</v>
       </c>
       <c r="N46" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O46" s="28" t="s">
         <v>146</v>
@@ -5267,7 +5267,7 @@
         <v>54</v>
       </c>
       <c r="N47" s="28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O47" s="28" t="s">
         <v>147</v>
@@ -5296,8 +5296,8 @@
       <c r="M48" s="75">
         <v>40</v>
       </c>
-      <c r="N48" s="32" t="s">
-        <v>150</v>
+      <c r="N48" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="O48" s="92" t="s">
         <v>148</v>
